--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H2">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I2">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J2">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>1205.907569827125</v>
+        <v>5629.145594740558</v>
       </c>
       <c r="R2">
-        <v>1205.907569827125</v>
+        <v>50662.31035266502</v>
       </c>
       <c r="S2">
-        <v>0.1246467613543754</v>
+        <v>0.3570614650714553</v>
       </c>
       <c r="T2">
-        <v>0.1246467613543754</v>
+        <v>0.3570614650714553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H3">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I3">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J3">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>2754.65223234748</v>
+        <v>2755.930239947126</v>
       </c>
       <c r="R3">
-        <v>2754.65223234748</v>
+        <v>24803.37215952414</v>
       </c>
       <c r="S3">
-        <v>0.2847303458497539</v>
+        <v>0.1748109855303186</v>
       </c>
       <c r="T3">
-        <v>0.2847303458497539</v>
+        <v>0.1748109855303186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H4">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I4">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J4">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>3256.183244083154</v>
+        <v>4029.87337748886</v>
       </c>
       <c r="R4">
-        <v>3256.183244083154</v>
+        <v>36268.86039739975</v>
       </c>
       <c r="S4">
-        <v>0.3365703192405809</v>
+        <v>0.2556182759889948</v>
       </c>
       <c r="T4">
-        <v>0.3365703192405809</v>
+        <v>0.2556182759889948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H5">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I5">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J5">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>1326.945418558667</v>
+        <v>1358.428556939256</v>
       </c>
       <c r="R5">
-        <v>1326.945418558667</v>
+        <v>12225.8570124533</v>
       </c>
       <c r="S5">
-        <v>0.13715765043342</v>
+        <v>0.08616627205180483</v>
       </c>
       <c r="T5">
-        <v>0.13715765043342</v>
+        <v>0.08616627205180483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.11574256986794</v>
+        <v>0.041467</v>
       </c>
       <c r="H6">
-        <v>3.11574256986794</v>
+        <v>0.124401</v>
       </c>
       <c r="I6">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="J6">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>159.6236692074596</v>
+        <v>9.914093422066333</v>
       </c>
       <c r="R6">
-        <v>159.6236692074596</v>
+        <v>89.226840798597</v>
       </c>
       <c r="S6">
-        <v>0.01649925243032041</v>
+        <v>0.0006288593291041772</v>
       </c>
       <c r="T6">
-        <v>0.01649925243032041</v>
+        <v>0.0006288593291041772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -844,49 +844,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.11574256986794</v>
+        <v>0.041467</v>
       </c>
       <c r="H7">
-        <v>3.11574256986794</v>
+        <v>0.124401</v>
       </c>
       <c r="I7">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="J7">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>364.6280259944461</v>
+        <v>4.853764999267667</v>
       </c>
       <c r="R7">
-        <v>364.6280259944461</v>
+        <v>43.683884993409</v>
       </c>
       <c r="S7">
-        <v>0.03768920908736165</v>
+        <v>0.0003078784182399427</v>
       </c>
       <c r="T7">
-        <v>0.03768920908736165</v>
+        <v>0.0003078784182399427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3.11574256986794</v>
+        <v>0.041467</v>
       </c>
       <c r="H8">
-        <v>3.11574256986794</v>
+        <v>0.124401</v>
       </c>
       <c r="I8">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="J8">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>431.0147228837064</v>
+        <v>7.097443203609999</v>
       </c>
       <c r="R8">
-        <v>431.0147228837064</v>
+        <v>63.87698883249</v>
       </c>
       <c r="S8">
-        <v>0.04455116681223698</v>
+        <v>0.0004501968239922971</v>
       </c>
       <c r="T8">
-        <v>0.04455116681223698</v>
+        <v>0.0004501968239922971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.041467</v>
+      </c>
+      <c r="H9">
+        <v>0.124401</v>
+      </c>
+      <c r="I9">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="J9">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>57.695868</v>
+      </c>
+      <c r="N9">
+        <v>173.087604</v>
+      </c>
+      <c r="O9">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P9">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q9">
+        <v>2.392474558356</v>
+      </c>
+      <c r="R9">
+        <v>21.532271025204</v>
+      </c>
+      <c r="S9">
+        <v>0.0001517566843094149</v>
+      </c>
+      <c r="T9">
+        <v>0.0001517566843094149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.363417</v>
+      </c>
+      <c r="H10">
+        <v>10.090251</v>
+      </c>
+      <c r="I10">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J10">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>239.0839323333333</v>
+      </c>
+      <c r="N10">
+        <v>717.251797</v>
+      </c>
+      <c r="O10">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="P10">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="Q10">
+        <v>804.1389624367829</v>
+      </c>
+      <c r="R10">
+        <v>7237.250661931046</v>
+      </c>
+      <c r="S10">
+        <v>0.05100721436606421</v>
+      </c>
+      <c r="T10">
+        <v>0.05100721436606421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.363417</v>
+      </c>
+      <c r="H11">
+        <v>10.090251</v>
+      </c>
+      <c r="I11">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J11">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="N11">
+        <v>351.153809</v>
+      </c>
+      <c r="O11">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="P11">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="Q11">
+        <v>393.692230268451</v>
+      </c>
+      <c r="R11">
+        <v>3543.230072416059</v>
+      </c>
+      <c r="S11">
+        <v>0.02497223107148656</v>
+      </c>
+      <c r="T11">
+        <v>0.02497223107148656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.11574256986794</v>
-      </c>
-      <c r="H9">
-        <v>3.11574256986794</v>
-      </c>
-      <c r="I9">
-        <v>0.11689492312187</v>
-      </c>
-      <c r="J9">
-        <v>0.11689492312187</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="N9">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="O9">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="P9">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="Q9">
-        <v>175.6452168044085</v>
-      </c>
-      <c r="R9">
-        <v>175.6452168044085</v>
-      </c>
-      <c r="S9">
-        <v>0.01815529479195094</v>
-      </c>
-      <c r="T9">
-        <v>0.01815529479195094</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.363417</v>
+      </c>
+      <c r="H12">
+        <v>10.090251</v>
+      </c>
+      <c r="I12">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J12">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>171.15883</v>
+      </c>
+      <c r="N12">
+        <v>513.47649</v>
+      </c>
+      <c r="O12">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="P12">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="Q12">
+        <v>575.6785185221099</v>
+      </c>
+      <c r="R12">
+        <v>5181.106666698989</v>
+      </c>
+      <c r="S12">
+        <v>0.03651577522274821</v>
+      </c>
+      <c r="T12">
+        <v>0.0365157752227482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.363417</v>
+      </c>
+      <c r="H13">
+        <v>10.090251</v>
+      </c>
+      <c r="I13">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J13">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>57.695868</v>
+      </c>
+      <c r="N13">
+        <v>173.087604</v>
+      </c>
+      <c r="O13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q13">
+        <v>194.055263260956</v>
+      </c>
+      <c r="R13">
+        <v>1746.497369348604</v>
+      </c>
+      <c r="S13">
+        <v>0.01230908944148164</v>
+      </c>
+      <c r="T13">
+        <v>0.01230908944148164</v>
       </c>
     </row>
   </sheetData>
